--- a/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_test.xlsx
+++ b/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_test.xlsx
@@ -584,46 +584,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6699754601226994</v>
+        <v>0.6700302144249514</v>
       </c>
       <c r="C4">
-        <v>0.006858041234392154</v>
+        <v>0.006127317784859088</v>
       </c>
       <c r="D4">
-        <v>0.4265605566914421</v>
+        <v>0.4259656670624377</v>
       </c>
       <c r="E4">
-        <v>0.007161123424290983</v>
+        <v>0.006444907032697123</v>
       </c>
       <c r="F4">
-        <v>0.6265999999999999</v>
+        <v>0.6114035087719298</v>
       </c>
       <c r="G4">
-        <v>0.01438108334761135</v>
+        <v>0.01151226555027118</v>
       </c>
       <c r="H4">
-        <v>0.3242485868940934</v>
+        <v>0.3277223088861678</v>
       </c>
       <c r="I4">
-        <v>0.005306158342804013</v>
+        <v>0.005382995552410119</v>
       </c>
       <c r="J4">
-        <v>0.8401972693122804</v>
+        <v>0.8303227667702002</v>
       </c>
       <c r="K4">
-        <v>0.004920801647387063</v>
+        <v>0.004095079625137998</v>
       </c>
       <c r="L4">
-        <v>0.5988957055214724</v>
+        <v>0.6012222222222221</v>
       </c>
       <c r="M4">
-        <v>0.00816831641605531</v>
+        <v>0.008629622085596256</v>
       </c>
       <c r="N4">
-        <v>0.6053990610328639</v>
+        <v>0.6036708860759493</v>
       </c>
       <c r="O4">
-        <v>0.005889267218252559</v>
+        <v>0.006313890987719284</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -631,43 +631,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5579141104294481</v>
+        <v>0.5605263157894739</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0.3937823834196892</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>0.7600000000000001</v>
+        <v>0.7543859649122804</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="H5">
-        <v>0.2657342657342658</v>
+        <v>0.2738853503184714</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0.8285714285714283</v>
-      </c>
-      <c r="K5">
-        <v>1.110223024625157E-16</v>
-      </c>
-      <c r="L5">
-        <v>0.3558282208588958</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>0.4507042253521127</v>
+        <v>0.459915611814346</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -678,46 +660,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5570067901234567</v>
+        <v>0.5576851851851853</v>
       </c>
       <c r="C6">
-        <v>0.007747086220883936</v>
+        <v>0.008716992059464967</v>
       </c>
       <c r="D6">
-        <v>0.3889398639825029</v>
+        <v>0.3890847555179678</v>
       </c>
       <c r="E6">
-        <v>0.006044576449013295</v>
+        <v>0.007079579931518809</v>
       </c>
       <c r="F6">
-        <v>0.6347999999999999</v>
+        <v>0.634</v>
       </c>
       <c r="G6">
-        <v>0.0122623187100378</v>
+        <v>0.0144081031752008</v>
       </c>
       <c r="H6">
-        <v>0.280769029028878</v>
+        <v>0.2812053570803189</v>
       </c>
       <c r="I6">
-        <v>0.004306125481433998</v>
+        <v>0.004962734894939425</v>
       </c>
       <c r="J6">
-        <v>0.8157284076047877</v>
+        <v>0.8161468011285377</v>
       </c>
       <c r="K6">
-        <v>0.004981162235785042</v>
+        <v>0.005921128248859375</v>
       </c>
       <c r="L6">
-        <v>0.4977777777777777</v>
+        <v>0.4996296296296296</v>
       </c>
       <c r="M6">
-        <v>0.00752524106796823</v>
+        <v>0.008326883099699617</v>
       </c>
       <c r="N6">
-        <v>0.5300943396226415</v>
+        <v>0.5313207547169811</v>
       </c>
       <c r="O6">
-        <v>0.005733869927105895</v>
+        <v>0.006433113880246033</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -725,46 +707,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5642074074074074</v>
+        <v>0.5660979532163742</v>
       </c>
       <c r="C7">
-        <v>0.007722397668849634</v>
+        <v>0.006924543741289035</v>
       </c>
       <c r="D7">
-        <v>0.3610348039012966</v>
+        <v>0.3676298455765571</v>
       </c>
       <c r="E7">
-        <v>0.006660657778028933</v>
+        <v>0.006061945603829388</v>
       </c>
       <c r="F7">
-        <v>0.5478000000000001</v>
+        <v>0.5529824561403509</v>
       </c>
       <c r="G7">
-        <v>0.01105153948384041</v>
+        <v>0.01098009251845444</v>
       </c>
       <c r="H7">
-        <v>0.2696221952392972</v>
+        <v>0.27576600513935</v>
       </c>
       <c r="I7">
-        <v>0.005130468772014118</v>
+        <v>0.004550653141141003</v>
       </c>
       <c r="J7">
-        <v>0.794795730461259</v>
+        <v>0.7922664334077605</v>
       </c>
       <c r="K7">
-        <v>0.004549217613548096</v>
+        <v>0.004261343177290766</v>
       </c>
       <c r="L7">
-        <v>0.5410493827160494</v>
+        <v>0.539611111111111</v>
       </c>
       <c r="M7">
-        <v>0.007583123491421206</v>
+        <v>0.007281254993754205</v>
       </c>
       <c r="N7">
-        <v>0.5426415094339622</v>
+        <v>0.5428270042194092</v>
       </c>
       <c r="O7">
-        <v>0.006315677477491732</v>
+        <v>0.005633722768728644</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -772,46 +754,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6312492077576372</v>
+        <v>0.6205394736842106</v>
       </c>
       <c r="C8">
-        <v>0.007421535045554872</v>
+        <v>0.007169839978592329</v>
       </c>
       <c r="D8">
-        <v>0.404746069955457</v>
+        <v>0.4191087963147356</v>
       </c>
       <c r="E8">
-        <v>0.00675147457311126</v>
+        <v>0.007107155551952349</v>
       </c>
       <c r="F8">
-        <v>0.6051020408163265</v>
+        <v>0.6712280701754387</v>
       </c>
       <c r="G8">
-        <v>0.0127454342419111</v>
+        <v>0.01526312570044119</v>
       </c>
       <c r="H8">
-        <v>0.3046700598509005</v>
+        <v>0.3052684517325609</v>
       </c>
       <c r="I8">
-        <v>0.005076934412074463</v>
+        <v>0.004912254448735276</v>
       </c>
       <c r="J8">
-        <v>0.8285477604791979</v>
+        <v>0.8334032148108578</v>
       </c>
       <c r="K8">
-        <v>0.004569517716598082</v>
+        <v>0.006000269017948479</v>
       </c>
       <c r="L8">
-        <v>0.5791304347826086</v>
+        <v>0.5164444444444444</v>
       </c>
       <c r="M8">
-        <v>0.00763172148533553</v>
+        <v>0.008376046599446463</v>
       </c>
       <c r="N8">
-        <v>0.5851904761904761</v>
+        <v>0.5536708860759494</v>
       </c>
       <c r="O8">
-        <v>0.005833660193698798</v>
+        <v>0.006014478322810657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -819,46 +801,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7013576687116564</v>
+        <v>0.6794346978557505</v>
       </c>
       <c r="C9">
-        <v>0.007089862246371204</v>
+        <v>0.007467672150304638</v>
       </c>
       <c r="D9">
-        <v>0.4701125133810276</v>
+        <v>0.4607573377606595</v>
       </c>
       <c r="E9">
-        <v>0.006971776864011403</v>
+        <v>0.007058222784009527</v>
       </c>
       <c r="F9">
-        <v>0.6589999999999999</v>
+        <v>0.6375438596491229</v>
       </c>
       <c r="G9">
-        <v>0.01198354476332764</v>
+        <v>0.012470210431892</v>
       </c>
       <c r="H9">
-        <v>0.3662459585140738</v>
+        <v>0.3616832248315115</v>
       </c>
       <c r="I9">
-        <v>0.005828692736032037</v>
+        <v>0.005740657012403616</v>
       </c>
       <c r="J9">
-        <v>0.8615512926045388</v>
+        <v>0.8489104400367319</v>
       </c>
       <c r="K9">
-        <v>0.004187690574829483</v>
+        <v>0.00424274394934232</v>
       </c>
       <c r="L9">
-        <v>0.6489570552147239</v>
+        <v>0.6426666666666668</v>
       </c>
       <c r="M9">
-        <v>0.007352030828320699</v>
+        <v>0.007513921253117672</v>
       </c>
       <c r="N9">
-        <v>0.6513145539906104</v>
+        <v>0.6414345991561181</v>
       </c>
       <c r="O9">
-        <v>0.005765135402773569</v>
+        <v>0.005673303499998505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -866,46 +848,46 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6949619631901841</v>
+        <v>0.6744020467836256</v>
       </c>
       <c r="C10">
-        <v>0.00705948039817994</v>
+        <v>0.006817672044772793</v>
       </c>
       <c r="D10">
-        <v>0.4675279288365609</v>
+        <v>0.4505562028065482</v>
       </c>
       <c r="E10">
-        <v>0.006860856800009307</v>
+        <v>0.006607134300136319</v>
       </c>
       <c r="F10">
-        <v>0.6744000000000002</v>
+        <v>0.6478947368421055</v>
       </c>
       <c r="G10">
-        <v>0.01345560449194516</v>
+        <v>0.01140415773823644</v>
       </c>
       <c r="H10">
-        <v>0.3588065231574541</v>
+        <v>0.3461568004223938</v>
       </c>
       <c r="I10">
-        <v>0.005459877039491579</v>
+        <v>0.005521729408157539</v>
       </c>
       <c r="J10">
-        <v>0.8637694999925362</v>
+        <v>0.845927848633345</v>
       </c>
       <c r="K10">
-        <v>0.004452357354906011</v>
+        <v>0.004226179274606556</v>
       </c>
       <c r="L10">
-        <v>0.6293251533742331</v>
+        <v>0.611</v>
       </c>
       <c r="M10">
-        <v>0.007914044260341146</v>
+        <v>0.007966042968549525</v>
       </c>
       <c r="N10">
-        <v>0.6399061032863851</v>
+        <v>0.619873417721519</v>
       </c>
       <c r="O10">
-        <v>0.005596396327583353</v>
+        <v>0.006102726793374647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -913,46 +895,46 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5378128834355828</v>
+        <v>0.5133528265107212</v>
       </c>
       <c r="C11">
-        <v>0.007967845009108743</v>
+        <v>0.01121745111800654</v>
       </c>
       <c r="D11">
-        <v>0.3364282075866874</v>
+        <v>0.3226579608384395</v>
       </c>
       <c r="E11">
-        <v>0.0065177655844329</v>
+        <v>0.008300133806858012</v>
       </c>
       <c r="F11">
-        <v>0.5274</v>
+        <v>0.4978947368421052</v>
       </c>
       <c r="G11">
-        <v>0.01240464650454953</v>
+        <v>0.01545566360263723</v>
       </c>
       <c r="H11">
-        <v>0.2473817902976534</v>
+        <v>0.2391687639708704</v>
       </c>
       <c r="I11">
-        <v>0.004656067157059324</v>
+        <v>0.005857756583615398</v>
       </c>
       <c r="J11">
-        <v>0.7780353041432396</v>
+        <v>0.7588908642046753</v>
       </c>
       <c r="K11">
-        <v>0.004810143177703785</v>
+        <v>0.005836503197011123</v>
       </c>
       <c r="L11">
-        <v>0.5077914110429448</v>
+        <v>0.4994444444444444</v>
       </c>
       <c r="M11">
-        <v>0.00755144237775951</v>
+        <v>0.008331349582393205</v>
       </c>
       <c r="N11">
-        <v>0.5123943661971831</v>
+        <v>0.4990717299578059</v>
       </c>
       <c r="O11">
-        <v>0.005894689976976397</v>
+        <v>0.00659130714987527</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -960,46 +942,46 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6621269938650306</v>
+        <v>0.6455160818713449</v>
       </c>
       <c r="C12">
-        <v>0.007540592593297424</v>
+        <v>0.007422223389600746</v>
       </c>
       <c r="D12">
-        <v>0.4165425060113418</v>
+        <v>0.4054079469419116</v>
       </c>
       <c r="E12">
-        <v>0.006772560173664233</v>
+        <v>0.00707024259436817</v>
       </c>
       <c r="F12">
-        <v>0.6090000000000001</v>
+        <v>0.6021052631578948</v>
       </c>
       <c r="G12">
-        <v>0.01245225987953558</v>
+        <v>0.01458450187935267</v>
       </c>
       <c r="H12">
-        <v>0.3173600677675283</v>
+        <v>0.3062991477785477</v>
       </c>
       <c r="I12">
-        <v>0.005464420542875437</v>
+        <v>0.004872115196370153</v>
       </c>
       <c r="J12">
-        <v>0.8330002334568101</v>
+        <v>0.8194933089065615</v>
       </c>
       <c r="K12">
-        <v>0.004404011435753641</v>
+        <v>0.00506319264838484</v>
       </c>
       <c r="L12">
-        <v>0.5968098159509203</v>
+        <v>0.568611111111111</v>
       </c>
       <c r="M12">
-        <v>0.008471107945391743</v>
+        <v>0.007470498637891176</v>
       </c>
       <c r="N12">
-        <v>0.5996713615023475</v>
+        <v>0.5766666666666665</v>
       </c>
       <c r="O12">
-        <v>0.006313763878440293</v>
+        <v>0.005258906469742031</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1007,46 +989,46 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5329228395061728</v>
+        <v>0.505493664717349</v>
       </c>
       <c r="C13">
-        <v>0.007044769519829353</v>
+        <v>0.007975102453132349</v>
       </c>
       <c r="D13">
-        <v>0.3284927782937387</v>
+        <v>0.3241272042768078</v>
       </c>
       <c r="E13">
-        <v>0.006679368780211581</v>
+        <v>0.006859706635422236</v>
       </c>
       <c r="F13">
-        <v>0.506</v>
+        <v>0.4973684210526316</v>
       </c>
       <c r="G13">
-        <v>0.01327013571226751</v>
+        <v>0.01234348433066262</v>
       </c>
       <c r="H13">
-        <v>0.2437623275252411</v>
+        <v>0.2407823369658685</v>
       </c>
       <c r="I13">
-        <v>0.00473170084737437</v>
+        <v>0.004982806524480132</v>
       </c>
       <c r="J13">
-        <v>0.7720098898469567</v>
+        <v>0.7596660762102232</v>
       </c>
       <c r="K13">
-        <v>0.004647142505670332</v>
+        <v>0.005085781188001071</v>
       </c>
       <c r="L13">
-        <v>0.515679012345679</v>
+        <v>0.5032777777777778</v>
       </c>
       <c r="M13">
-        <v>0.008573635555825909</v>
+        <v>0.007790164510964787</v>
       </c>
       <c r="N13">
-        <v>0.5133962264150944</v>
+        <v>0.5018565400843882</v>
       </c>
       <c r="O13">
-        <v>0.006123327364808251</v>
+        <v>0.006248020063854498</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1054,46 +1036,46 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5532413580246913</v>
+        <v>0.5536125730994153</v>
       </c>
       <c r="C14">
-        <v>0.007198589434195157</v>
+        <v>0.007190487658661482</v>
       </c>
       <c r="D14">
-        <v>0.3640951532594676</v>
+        <v>0.3615168847371786</v>
       </c>
       <c r="E14">
-        <v>0.006426872843541043</v>
+        <v>0.006330742462749839</v>
       </c>
       <c r="F14">
-        <v>0.5722</v>
+        <v>0.5515789473684211</v>
       </c>
       <c r="G14">
-        <v>0.01297183101476429</v>
+        <v>0.01196016238525355</v>
       </c>
       <c r="H14">
-        <v>0.2674818008169332</v>
+        <v>0.2692012969400482</v>
       </c>
       <c r="I14">
-        <v>0.004546447366338857</v>
+        <v>0.004454258444274883</v>
       </c>
       <c r="J14">
-        <v>0.7967005705583816</v>
+        <v>0.7878745904371747</v>
       </c>
       <c r="K14">
-        <v>0.004846767643008731</v>
+        <v>0.004428080736022522</v>
       </c>
       <c r="L14">
-        <v>0.5162962962962961</v>
+        <v>0.5262777777777776</v>
       </c>
       <c r="M14">
-        <v>0.007982549299659025</v>
+        <v>0.00612628504602386</v>
       </c>
       <c r="N14">
-        <v>0.5294811320754716</v>
+        <v>0.5323628691983123</v>
       </c>
       <c r="O14">
-        <v>0.005881046922334598</v>
+        <v>0.00485279020346685</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1101,46 +1083,46 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5707298752834468</v>
+        <v>0.5797976680384087</v>
       </c>
       <c r="C15">
-        <v>0.007371581989762066</v>
+        <v>0.007508851064520039</v>
       </c>
       <c r="D15">
-        <v>0.3717286769753201</v>
+        <v>0.3866426132017399</v>
       </c>
       <c r="E15">
-        <v>0.007012843241237687</v>
+        <v>0.006564435219173159</v>
       </c>
       <c r="F15">
-        <v>0.5600000000000001</v>
+        <v>0.5798148148148149</v>
       </c>
       <c r="G15">
-        <v>0.01363168182037022</v>
+        <v>0.01200868347599215</v>
       </c>
       <c r="H15">
-        <v>0.2788342368399652</v>
+        <v>0.2906980896875522</v>
       </c>
       <c r="I15">
-        <v>0.004995837240449552</v>
+        <v>0.005176052213820226</v>
       </c>
       <c r="J15">
-        <v>0.7862298224512656</v>
+        <v>0.7902316237143787</v>
       </c>
       <c r="K15">
-        <v>0.005029776578571954</v>
+        <v>0.004852311469100146</v>
       </c>
       <c r="L15">
-        <v>0.5271428571428571</v>
+        <v>0.5272222222222224</v>
       </c>
       <c r="M15">
-        <v>0.008405483770427824</v>
+        <v>0.008858201081555439</v>
       </c>
       <c r="N15">
-        <v>0.5352307692307692</v>
+        <v>0.5403703703703703</v>
       </c>
       <c r="O15">
-        <v>0.006082379417186923</v>
+        <v>0.006555806378872653</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1148,46 +1130,46 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6061210317460316</v>
+        <v>0.5940534979423868</v>
       </c>
       <c r="C16">
-        <v>0.006879076454053723</v>
+        <v>0.008719746920030413</v>
       </c>
       <c r="D16">
-        <v>0.3925814677861314</v>
+        <v>0.3865210141417497</v>
       </c>
       <c r="E16">
-        <v>0.006545456494232549</v>
+        <v>0.008250539850059246</v>
       </c>
       <c r="F16">
-        <v>0.5808333333333333</v>
+        <v>0.5631481481481483</v>
       </c>
       <c r="G16">
-        <v>0.01238436377343088</v>
+        <v>0.01456830779596763</v>
       </c>
       <c r="H16">
-        <v>0.2976993725048545</v>
+        <v>0.2951350822338238</v>
       </c>
       <c r="I16">
-        <v>0.005563334896212135</v>
+        <v>0.006343398091191943</v>
       </c>
       <c r="J16">
-        <v>0.8005859727964107</v>
+        <v>0.7910647384218185</v>
       </c>
       <c r="K16">
-        <v>0.004582861853548059</v>
+        <v>0.005700336008568563</v>
       </c>
       <c r="L16">
-        <v>0.5497959183673469</v>
+        <v>0.5506172839506174</v>
       </c>
       <c r="M16">
-        <v>0.01139450190727243</v>
+        <v>0.009976383049041804</v>
       </c>
       <c r="N16">
-        <v>0.5574358974358973</v>
+        <v>0.55375</v>
       </c>
       <c r="O16">
-        <v>0.00789183196954335</v>
+        <v>0.007564873733650224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1195,46 +1177,46 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6704542233560091</v>
+        <v>0.6768615683584818</v>
       </c>
       <c r="C17">
-        <v>0.006479645837579651</v>
+        <v>0.006823338215319885</v>
       </c>
       <c r="D17">
-        <v>0.4578630070797085</v>
+        <v>0.4711609367139137</v>
       </c>
       <c r="E17">
-        <v>0.006845039962027399</v>
+        <v>0.006843394073464681</v>
       </c>
       <c r="F17">
-        <v>0.6610416666666667</v>
+        <v>0.6785185185185186</v>
       </c>
       <c r="G17">
-        <v>0.01342209298469965</v>
+        <v>0.01346315433858536</v>
       </c>
       <c r="H17">
-        <v>0.3510321056893319</v>
+        <v>0.3617880661694787</v>
       </c>
       <c r="I17">
-        <v>0.005139899107719226</v>
+        <v>0.005270674291529331</v>
       </c>
       <c r="J17">
-        <v>0.8451391757227507</v>
+        <v>0.8493284333276675</v>
       </c>
       <c r="K17">
-        <v>0.004895560417207068</v>
+        <v>0.005119413045679755</v>
       </c>
       <c r="L17">
-        <v>0.6004761904761905</v>
+        <v>0.6002469135802468</v>
       </c>
       <c r="M17">
-        <v>0.007550480710454277</v>
+        <v>0.007888214440483932</v>
       </c>
       <c r="N17">
-        <v>0.6153846153846153</v>
+        <v>0.6198148148148148</v>
       </c>
       <c r="O17">
-        <v>0.005474885487694592</v>
+        <v>0.005702168311949252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1242,46 +1224,46 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5668360260770975</v>
+        <v>0.5723834019204389</v>
       </c>
       <c r="C18">
-        <v>0.00738305253730398</v>
+        <v>0.00703745273152212</v>
       </c>
       <c r="D18">
-        <v>0.3384338486811799</v>
+        <v>0.3509444196585658</v>
       </c>
       <c r="E18">
-        <v>0.0082584130480855</v>
+        <v>0.007863003106603317</v>
       </c>
       <c r="F18">
-        <v>0.4458333333333333</v>
+        <v>0.4577777777777776</v>
       </c>
       <c r="G18">
-        <v>0.014582623891363</v>
+        <v>0.01368977939651356</v>
       </c>
       <c r="H18">
-        <v>0.2740358816311845</v>
+        <v>0.2857227588808435</v>
       </c>
       <c r="I18">
-        <v>0.006340462981394623</v>
+        <v>0.006110481965142245</v>
       </c>
       <c r="J18">
-        <v>0.7728077484320545</v>
+        <v>0.7741035737327685</v>
       </c>
       <c r="K18">
-        <v>0.004368071196083068</v>
+        <v>0.004256648998848811</v>
       </c>
       <c r="L18">
-        <v>0.6142857142857142</v>
+        <v>0.6182716049382716</v>
       </c>
       <c r="M18">
-        <v>0.009543615864265109</v>
+        <v>0.009006851730572585</v>
       </c>
       <c r="N18">
-        <v>0.5728205128205127</v>
+        <v>0.5781481481481482</v>
       </c>
       <c r="O18">
-        <v>0.006555487861090836</v>
+        <v>0.006277100551613346</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1289,46 +1271,46 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6939802469135801</v>
+        <v>0.6690019493177387</v>
       </c>
       <c r="C19">
-        <v>0.006781526827179696</v>
+        <v>0.006579507482344815</v>
       </c>
       <c r="D19">
-        <v>0.4628856025877692</v>
+        <v>0.4365031865427077</v>
       </c>
       <c r="E19">
-        <v>0.00642028731511235</v>
+        <v>0.005847405682446294</v>
       </c>
       <c r="F19">
-        <v>0.6418</v>
+        <v>0.6187719298245614</v>
       </c>
       <c r="G19">
-        <v>0.0115883513871009</v>
+        <v>0.01291985724885802</v>
       </c>
       <c r="H19">
-        <v>0.3630797955556958</v>
+        <v>0.338469856398674</v>
       </c>
       <c r="I19">
-        <v>0.005590681477895265</v>
+        <v>0.00456199260738227</v>
       </c>
       <c r="J19">
-        <v>0.8551549374094428</v>
+        <v>0.8367683419451859</v>
       </c>
       <c r="K19">
-        <v>0.00383430473653823</v>
+        <v>0.003915306996746581</v>
       </c>
       <c r="L19">
-        <v>0.6508024691358024</v>
+        <v>0.6158333333333333</v>
       </c>
       <c r="M19">
-        <v>0.008267407961158324</v>
+        <v>0.008917531746131746</v>
       </c>
       <c r="N19">
-        <v>0.6486792452830188</v>
+        <v>0.6165400843881857</v>
       </c>
       <c r="O19">
-        <v>0.005955957071637208</v>
+        <v>0.005614719988968564</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1336,46 +1318,46 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7103965183752418</v>
+        <v>0.6835837114879389</v>
       </c>
       <c r="C20">
-        <v>0.006942749518365376</v>
+        <v>0.006615512403741919</v>
       </c>
       <c r="D20">
-        <v>0.4935875667785525</v>
+        <v>0.4710757208536199</v>
       </c>
       <c r="E20">
-        <v>0.006743403977558404</v>
+        <v>0.006615593296189881</v>
       </c>
       <c r="F20">
-        <v>0.7070212765957449</v>
+        <v>0.6756603773584905</v>
       </c>
       <c r="G20">
-        <v>0.01219235143766939</v>
+        <v>0.01222368574102206</v>
       </c>
       <c r="H20">
-        <v>0.3799996481095327</v>
+        <v>0.3624238058083925</v>
       </c>
       <c r="I20">
-        <v>0.005524277813987122</v>
+        <v>0.005337695517024788</v>
       </c>
       <c r="J20">
-        <v>0.8660171357752646</v>
+        <v>0.8470753518685332</v>
       </c>
       <c r="K20">
-        <v>0.004650335139381956</v>
+        <v>0.004720311957620016</v>
       </c>
       <c r="L20">
-        <v>0.6195804195804195</v>
+        <v>0.600126582278481</v>
       </c>
       <c r="M20">
-        <v>0.007998958982169624</v>
+        <v>0.008164878927983232</v>
       </c>
       <c r="N20">
-        <v>0.6412105263157895</v>
+        <v>0.6190995260663508</v>
       </c>
       <c r="O20">
-        <v>0.005987342083831892</v>
+        <v>0.005982952750088977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1383,46 +1365,46 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6225368248772505</v>
+        <v>0.6151229997611655</v>
       </c>
       <c r="C21">
-        <v>0.006777753469856651</v>
+        <v>0.007628950596836659</v>
       </c>
       <c r="D21">
-        <v>0.3886428572441069</v>
+        <v>0.3963153955663437</v>
       </c>
       <c r="E21">
-        <v>0.006392769329211956</v>
+        <v>0.007703362701231453</v>
       </c>
       <c r="F21">
-        <v>0.5702127659574469</v>
+        <v>0.5762264150943396</v>
       </c>
       <c r="G21">
-        <v>0.01264387469600925</v>
+        <v>0.01400217458499764</v>
       </c>
       <c r="H21">
-        <v>0.2955256592136207</v>
+        <v>0.3026788826927029</v>
       </c>
       <c r="I21">
-        <v>0.004692848648136683</v>
+        <v>0.005557235632879576</v>
       </c>
       <c r="J21">
-        <v>0.7969384829145808</v>
+        <v>0.7966345932294771</v>
       </c>
       <c r="K21">
-        <v>0.004282271093228096</v>
+        <v>0.005112318842620533</v>
       </c>
       <c r="L21">
-        <v>0.552937062937063</v>
+        <v>0.555</v>
       </c>
       <c r="M21">
-        <v>0.008474154170551751</v>
+        <v>0.007703717410915023</v>
       </c>
       <c r="N21">
-        <v>0.5572105263157895</v>
+        <v>0.5603317535545024</v>
       </c>
       <c r="O21">
-        <v>0.005750073352626117</v>
+        <v>0.005862600071827373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1430,46 +1412,46 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5065648148148149</v>
+        <v>0.5470028011204482</v>
       </c>
       <c r="C22">
-        <v>0.01454742470742976</v>
+        <v>0.01272638947279781</v>
       </c>
       <c r="D22">
-        <v>0.2820521399537498</v>
+        <v>0.3193558615236883</v>
       </c>
       <c r="E22">
-        <v>0.01144061308249111</v>
+        <v>0.01147428481036655</v>
       </c>
       <c r="F22">
-        <v>0.4122222222222223</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="G22">
-        <v>0.02114776130456664</v>
+        <v>0.01899250542804365</v>
       </c>
       <c r="H22">
-        <v>0.2165101943636714</v>
+        <v>0.2466902240584233</v>
       </c>
       <c r="I22">
-        <v>0.00834700735111063</v>
+        <v>0.008754365796154212</v>
       </c>
       <c r="J22">
-        <v>0.7569978224533697</v>
+        <v>0.7716391860472289</v>
       </c>
       <c r="K22">
-        <v>0.007256011967427534</v>
+        <v>0.007479063225975358</v>
       </c>
       <c r="L22">
-        <v>0.5526666666666666</v>
+        <v>0.5674999999999999</v>
       </c>
       <c r="M22">
-        <v>0.01679512098158975</v>
+        <v>0.01238748655198019</v>
       </c>
       <c r="N22">
-        <v>0.5202564102564102</v>
+        <v>0.5414606741573034</v>
       </c>
       <c r="O22">
-        <v>0.01175062381826775</v>
+        <v>0.01014858909292715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1477,46 +1459,46 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7868194444444444</v>
+        <v>0.7886099439775913</v>
       </c>
       <c r="C23">
-        <v>0.009661833519103213</v>
+        <v>0.009373973662685886</v>
       </c>
       <c r="D23">
-        <v>0.5417712156360184</v>
+        <v>0.5649842958976733</v>
       </c>
       <c r="E23">
-        <v>0.010044638087916</v>
+        <v>0.0102833654990262</v>
       </c>
       <c r="F23">
-        <v>0.7916666666666667</v>
+        <v>0.7871428571428569</v>
       </c>
       <c r="G23">
-        <v>0.01768300824817304</v>
+        <v>0.01669045773178268</v>
       </c>
       <c r="H23">
-        <v>0.4142483415130265</v>
+        <v>0.4431389121596279</v>
       </c>
       <c r="I23">
-        <v>0.009256298443919064</v>
+        <v>0.009784240228863428</v>
       </c>
       <c r="J23">
-        <v>0.9148954333499989</v>
+        <v>0.9141636355788881</v>
       </c>
       <c r="K23">
-        <v>0.006508497725780882</v>
+        <v>0.006155389151044077</v>
       </c>
       <c r="L23">
-        <v>0.6593333333333333</v>
+        <v>0.6898529411764706</v>
       </c>
       <c r="M23">
-        <v>0.01267646234612152</v>
+        <v>0.0121491341934914</v>
       </c>
       <c r="N23">
-        <v>0.6898717948717951</v>
+        <v>0.7128089887640451</v>
       </c>
       <c r="O23">
-        <v>0.009356867544086156</v>
+        <v>0.009169428784164491</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1524,46 +1506,46 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6547195858498704</v>
+        <v>0.6205499664654593</v>
       </c>
       <c r="C24">
-        <v>0.0141492472403193</v>
+        <v>0.01278273081503778</v>
       </c>
       <c r="D24">
-        <v>0.4421197909317619</v>
+        <v>0.4024727346558783</v>
       </c>
       <c r="E24">
-        <v>0.01067776983142771</v>
+        <v>0.00853283678383554</v>
       </c>
       <c r="F24">
-        <v>0.6378947368421053</v>
+        <v>0.598095238095238</v>
       </c>
       <c r="G24">
-        <v>0.01813567683426298</v>
+        <v>0.01773131192940069</v>
       </c>
       <c r="H24">
-        <v>0.3399802643725116</v>
+        <v>0.3052424525845085</v>
       </c>
       <c r="I24">
-        <v>0.008782404962725032</v>
+        <v>0.006846542741926587</v>
       </c>
       <c r="J24">
-        <v>0.8448508296655025</v>
+        <v>0.8342447964827308</v>
       </c>
       <c r="K24">
-        <v>0.006881724068213857</v>
+        <v>0.005595284186758254</v>
       </c>
       <c r="L24">
-        <v>0.6113114754098361</v>
+        <v>0.5945070422535211</v>
       </c>
       <c r="M24">
-        <v>0.01157034192536588</v>
+        <v>0.01301330954757474</v>
       </c>
       <c r="N24">
-        <v>0.617625</v>
+        <v>0.5953260869565217</v>
       </c>
       <c r="O24">
-        <v>0.009294342050985116</v>
+        <v>0.008889130544748491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1571,46 +1553,46 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6692407407407408</v>
+        <v>0.6593034825870646</v>
       </c>
       <c r="C25">
-        <v>0.01238508864331167</v>
+        <v>0.01073111311271735</v>
       </c>
       <c r="D25">
-        <v>0.4337801608514025</v>
+        <v>0.4284129082790967</v>
       </c>
       <c r="E25">
-        <v>0.01082259031732069</v>
+        <v>0.01099231820789143</v>
       </c>
       <c r="F25">
-        <v>0.6527777777777777</v>
+        <v>0.6333333333333332</v>
       </c>
       <c r="G25">
-        <v>0.02245369603978697</v>
+        <v>0.02300759977968769</v>
       </c>
       <c r="H25">
-        <v>0.3276244336952318</v>
+        <v>0.3265744601772484</v>
       </c>
       <c r="I25">
-        <v>0.008412675465265529</v>
+        <v>0.008392405063335828</v>
       </c>
       <c r="J25">
-        <v>0.852589945521588</v>
+        <v>0.8386944737393773</v>
       </c>
       <c r="K25">
-        <v>0.007516516447340638</v>
+        <v>0.007803294843099495</v>
       </c>
       <c r="L25">
-        <v>0.5943333333333334</v>
+        <v>0.5879104477611939</v>
       </c>
       <c r="M25">
-        <v>0.01583708773370707</v>
+        <v>0.01535042591599145</v>
       </c>
       <c r="N25">
-        <v>0.6078205128205129</v>
+        <v>0.5987499999999999</v>
       </c>
       <c r="O25">
-        <v>0.01089576168405992</v>
+        <v>0.01028390807374968</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1618,46 +1600,46 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7302016806722689</v>
+        <v>0.7257638888888888</v>
       </c>
       <c r="C26">
-        <v>0.008418787595900645</v>
+        <v>0.007353505175781594</v>
       </c>
       <c r="D26">
-        <v>0.5088070350677938</v>
+        <v>0.5061188332347819</v>
       </c>
       <c r="E26">
-        <v>0.009605132670071237</v>
+        <v>0.009571007900052747</v>
       </c>
       <c r="F26">
-        <v>0.6137142857142857</v>
+        <v>0.5958974358974359</v>
       </c>
       <c r="G26">
-        <v>0.01729115077958421</v>
+        <v>0.01489245599306066</v>
       </c>
       <c r="H26">
-        <v>0.4383068659635018</v>
+        <v>0.4426543383707886</v>
       </c>
       <c r="I26">
-        <v>0.008807988055127391</v>
+        <v>0.009077573537703942</v>
       </c>
       <c r="J26">
-        <v>0.8103812956295806</v>
+        <v>0.809109913493085</v>
       </c>
       <c r="K26">
-        <v>0.006365499631060145</v>
+        <v>0.00557330794193589</v>
       </c>
       <c r="L26">
-        <v>0.6732941176470588</v>
+        <v>0.6926041666666667</v>
       </c>
       <c r="M26">
-        <v>0.01152166316831571</v>
+        <v>0.01037195427370463</v>
       </c>
       <c r="N26">
-        <v>0.6559166666666667</v>
+        <v>0.6646666666666667</v>
       </c>
       <c r="O26">
-        <v>0.007380889878676467</v>
+        <v>0.007403252076415456</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1665,46 +1647,46 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7716911130284728</v>
+        <v>0.7829707792207792</v>
       </c>
       <c r="C27">
-        <v>0.01096603640682892</v>
+        <v>0.009236916750031576</v>
       </c>
       <c r="D27">
-        <v>0.5733570143282049</v>
+        <v>0.5764099652621912</v>
       </c>
       <c r="E27">
-        <v>0.01129861350539119</v>
+        <v>0.009797670318251739</v>
       </c>
       <c r="F27">
-        <v>0.7621052631578948</v>
+        <v>0.7577272727272727</v>
       </c>
       <c r="G27">
-        <v>0.01862711767578085</v>
+        <v>0.01681502526730871</v>
       </c>
       <c r="H27">
-        <v>0.4628093158794345</v>
+        <v>0.4681379753117245</v>
       </c>
       <c r="I27">
-        <v>0.01077758002771628</v>
+        <v>0.009537087014244938</v>
       </c>
       <c r="J27">
-        <v>0.9080207916894182</v>
+        <v>0.9062084114852653</v>
       </c>
       <c r="K27">
-        <v>0.006455259808805014</v>
+        <v>0.005664865283215637</v>
       </c>
       <c r="L27">
-        <v>0.720327868852459</v>
+        <v>0.7258571428571428</v>
       </c>
       <c r="M27">
-        <v>0.01110393411375499</v>
+        <v>0.01030879796255268</v>
       </c>
       <c r="N27">
-        <v>0.7302500000000001</v>
+        <v>0.7334782608695651</v>
       </c>
       <c r="O27">
-        <v>0.008549716134214846</v>
+        <v>0.007549304980562388</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1712,46 +1694,46 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7665000000000002</v>
+        <v>0.7739635854341737</v>
       </c>
       <c r="C28">
-        <v>0.009525701577644319</v>
+        <v>0.008509456551700656</v>
       </c>
       <c r="D28">
-        <v>0.5178005945742872</v>
+        <v>0.5422675856637453</v>
       </c>
       <c r="E28">
-        <v>0.01091494744895749</v>
+        <v>0.01037917151025214</v>
       </c>
       <c r="F28">
-        <v>0.7316666666666667</v>
+        <v>0.760952380952381</v>
       </c>
       <c r="G28">
-        <v>0.0202508748786725</v>
+        <v>0.01899155577903044</v>
       </c>
       <c r="H28">
-        <v>0.403841683525487</v>
+        <v>0.4241926491253328</v>
       </c>
       <c r="I28">
-        <v>0.009592281795449076</v>
+        <v>0.009539224930053047</v>
       </c>
       <c r="J28">
-        <v>0.8947599853447724</v>
+        <v>0.9032553197606203</v>
       </c>
       <c r="K28">
-        <v>0.00668962642001325</v>
+        <v>0.006662307391173239</v>
       </c>
       <c r="L28">
-        <v>0.6718333333333334</v>
+        <v>0.6769117647058823</v>
       </c>
       <c r="M28">
-        <v>0.01258353012150504</v>
+        <v>0.01169729523355056</v>
       </c>
       <c r="N28">
-        <v>0.6856410256410256</v>
+        <v>0.6967415730337079</v>
       </c>
       <c r="O28">
-        <v>0.009020999413041131</v>
+        <v>0.00857042246758144</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1759,46 +1741,46 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.7776468155500413</v>
+        <v>0.7661391585760517</v>
       </c>
       <c r="C29">
-        <v>0.008161504059120528</v>
+        <v>0.007018300855224147</v>
       </c>
       <c r="D29">
-        <v>0.4899708809281955</v>
+        <v>0.489860694397438</v>
       </c>
       <c r="E29">
-        <v>0.008637103868286589</v>
+        <v>0.00760815267211884</v>
       </c>
       <c r="F29">
-        <v>0.7015384615384614</v>
+        <v>0.6956666666666668</v>
       </c>
       <c r="G29">
-        <v>0.01545929028110593</v>
+        <v>0.01308216609202906</v>
       </c>
       <c r="H29">
-        <v>0.377975706423037</v>
+        <v>0.3796308649061412</v>
       </c>
       <c r="I29">
-        <v>0.007364923267817514</v>
+        <v>0.007048091611250362</v>
       </c>
       <c r="J29">
-        <v>0.8906923660389664</v>
+        <v>0.8829879209864301</v>
       </c>
       <c r="K29">
-        <v>0.00492064142453108</v>
+        <v>0.004171126914367052</v>
       </c>
       <c r="L29">
-        <v>0.6750537634408604</v>
+        <v>0.6659223300970873</v>
       </c>
       <c r="M29">
-        <v>0.00900908425211</v>
+        <v>0.00961886053225891</v>
       </c>
       <c r="N29">
-        <v>0.6808403361344542</v>
+        <v>0.6726315789473685</v>
       </c>
       <c r="O29">
-        <v>0.006954023056886416</v>
+        <v>0.007100992660496352</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1806,46 +1788,46 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.7197481259370315</v>
+        <v>0.7194815340909091</v>
       </c>
       <c r="C30">
-        <v>0.009589566235794988</v>
+        <v>0.009129433526913755</v>
       </c>
       <c r="D30">
-        <v>0.4172509391242485</v>
+        <v>0.4229662895170769</v>
       </c>
       <c r="E30">
-        <v>0.008565515363910592</v>
+        <v>0.008262733110190157</v>
       </c>
       <c r="F30">
-        <v>0.646896551724138</v>
+        <v>0.6578787878787881</v>
       </c>
       <c r="G30">
-        <v>0.01777623547497043</v>
+        <v>0.01791227492386205</v>
       </c>
       <c r="H30">
-        <v>0.3091934778275429</v>
+        <v>0.31302251922758</v>
       </c>
       <c r="I30">
-        <v>0.006360299289102811</v>
+        <v>0.005981482834521157</v>
       </c>
       <c r="J30">
-        <v>0.8778900162437395</v>
+        <v>0.8777374855524819</v>
       </c>
       <c r="K30">
-        <v>0.005067075912597474</v>
+        <v>0.005078384580859518</v>
       </c>
       <c r="L30">
-        <v>0.6345217391304347</v>
+        <v>0.626875</v>
       </c>
       <c r="M30">
-        <v>0.009333428812204003</v>
+        <v>0.00975478982171063</v>
       </c>
       <c r="N30">
-        <v>0.6370138888888889</v>
+        <v>0.6332298136645963</v>
       </c>
       <c r="O30">
-        <v>0.006876699778596285</v>
+        <v>0.006870554466901768</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1853,46 +1835,46 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6579055606617646</v>
+        <v>0.6600248226950355</v>
       </c>
       <c r="C31">
-        <v>0.007516183908127916</v>
+        <v>0.008403676705248553</v>
       </c>
       <c r="D31">
-        <v>0.4031833316957449</v>
+        <v>0.4239885149431269</v>
       </c>
       <c r="E31">
-        <v>0.006589919625591523</v>
+        <v>0.007639133357387584</v>
       </c>
       <c r="F31">
-        <v>0.656764705882353</v>
+        <v>0.66675</v>
       </c>
       <c r="G31">
-        <v>0.01636112413017154</v>
+        <v>0.01546407442787856</v>
       </c>
       <c r="H31">
-        <v>0.2918957620082602</v>
+        <v>0.3115825284571837</v>
       </c>
       <c r="I31">
-        <v>0.004532190391205337</v>
+        <v>0.005538324424257668</v>
       </c>
       <c r="J31">
-        <v>0.8646352323583172</v>
+        <v>0.8609624255076126</v>
       </c>
       <c r="K31">
-        <v>0.004787213188775619</v>
+        <v>0.005316810249267334</v>
       </c>
       <c r="L31">
-        <v>0.57640625</v>
+        <v>0.5815602836879432</v>
       </c>
       <c r="M31">
-        <v>0.009457792093660822</v>
+        <v>0.008324178554175221</v>
       </c>
       <c r="N31">
-        <v>0.5932716049382717</v>
+        <v>0.6003867403314916</v>
       </c>
       <c r="O31">
-        <v>0.006130049703839124</v>
+        <v>0.006354205957025627</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1900,46 +1882,46 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6901198979591838</v>
+        <v>0.687286117836965</v>
       </c>
       <c r="C32">
-        <v>0.005961983984186348</v>
+        <v>0.006900613153079771</v>
       </c>
       <c r="D32">
-        <v>0.4437183424872378</v>
+        <v>0.4523074270203536</v>
       </c>
       <c r="E32">
-        <v>0.007504769303664283</v>
+        <v>0.007824720588847811</v>
       </c>
       <c r="F32">
-        <v>0.5440816326530612</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G32">
-        <v>0.01105943868175463</v>
+        <v>0.01146207930480903</v>
       </c>
       <c r="H32">
-        <v>0.3756743522977364</v>
+        <v>0.3749249909683231</v>
       </c>
       <c r="I32">
-        <v>0.006678733438042594</v>
+        <v>0.006532729187094188</v>
       </c>
       <c r="J32">
-        <v>0.8381850712981539</v>
+        <v>0.8375651290707599</v>
       </c>
       <c r="K32">
-        <v>0.003316681785338504</v>
+        <v>0.003906143345835389</v>
       </c>
       <c r="L32">
-        <v>0.7221875</v>
+        <v>0.6981355932203391</v>
       </c>
       <c r="M32">
-        <v>0.006025009018134853</v>
+        <v>0.005378036698073907</v>
       </c>
       <c r="N32">
-        <v>0.6804306220095697</v>
+        <v>0.6676824034334763</v>
       </c>
       <c r="O32">
-        <v>0.004960384649971394</v>
+        <v>0.005092705351325888</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1947,46 +1929,46 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6182622601279318</v>
+        <v>0.6229337248322147</v>
       </c>
       <c r="C33">
-        <v>0.009219570485153539</v>
+        <v>0.009592296714781234</v>
       </c>
       <c r="D33">
-        <v>0.3739405969939583</v>
+        <v>0.3832639142628825</v>
       </c>
       <c r="E33">
-        <v>0.008296088676067626</v>
+        <v>0.008229567203906218</v>
       </c>
       <c r="F33">
-        <v>0.5677142857142858</v>
+        <v>0.5375</v>
       </c>
       <c r="G33">
-        <v>0.02979934996002709</v>
+        <v>0.02541643920761461</v>
       </c>
       <c r="H33">
-        <v>0.2907947723863442</v>
+        <v>0.3054045563353589</v>
       </c>
       <c r="I33">
-        <v>0.009714708321857002</v>
+        <v>0.008157479148176772</v>
       </c>
       <c r="J33">
-        <v>0.8466492785083226</v>
+        <v>0.8446829186882162</v>
       </c>
       <c r="K33">
-        <v>0.00474105630881605</v>
+        <v>0.004849309484265207</v>
       </c>
       <c r="L33">
-        <v>0.6132089552238805</v>
+        <v>0.6607382550335571</v>
       </c>
       <c r="M33">
-        <v>0.03451901079443576</v>
+        <v>0.0247276960099535</v>
       </c>
       <c r="N33">
-        <v>0.6037869822485207</v>
+        <v>0.6346560846560847</v>
       </c>
       <c r="O33">
-        <v>0.02204178641744148</v>
+        <v>0.0151942791157812</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1994,46 +1976,46 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6491023535851123</v>
+        <v>0.6610717308506137</v>
       </c>
       <c r="C34">
-        <v>0.009176296488649038</v>
+        <v>0.008300704567870021</v>
       </c>
       <c r="D34">
-        <v>0.3577421092615635</v>
+        <v>0.3760999845081954</v>
       </c>
       <c r="E34">
-        <v>0.008290747713863678</v>
+        <v>0.00798838552666703</v>
       </c>
       <c r="F34">
-        <v>0.6041379310344828</v>
+        <v>0.6064705882352941</v>
       </c>
       <c r="G34">
-        <v>0.0159050198502354</v>
+        <v>0.01421735318773343</v>
       </c>
       <c r="H34">
-        <v>0.2544731084718688</v>
+        <v>0.2729520268563627</v>
       </c>
       <c r="I34">
-        <v>0.005812841637952704</v>
+        <v>0.005868812500158971</v>
       </c>
       <c r="J34">
-        <v>0.8670420899520712</v>
+        <v>0.8628046258551653</v>
       </c>
       <c r="K34">
-        <v>0.004801355308928779</v>
+        <v>0.004481552940445943</v>
       </c>
       <c r="L34">
-        <v>0.5925396825396825</v>
+        <v>0.6043165467625898</v>
       </c>
       <c r="M34">
-        <v>0.006568603757370228</v>
+        <v>0.006624458110438547</v>
       </c>
       <c r="N34">
-        <v>0.5947096774193548</v>
+        <v>0.6047398843930636</v>
       </c>
       <c r="O34">
-        <v>0.006073954195013664</v>
+        <v>0.006068587211513155</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2041,46 +2023,46 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6217580782312925</v>
+        <v>0.6236792452830189</v>
       </c>
       <c r="C35">
-        <v>0.009365416441549868</v>
+        <v>0.009674027907583316</v>
       </c>
       <c r="D35">
-        <v>0.370278502225785</v>
+        <v>0.3830592017601895</v>
       </c>
       <c r="E35">
-        <v>0.007681916939953959</v>
+        <v>0.008472979212444776</v>
       </c>
       <c r="F35">
-        <v>0.6575000000000002</v>
+        <v>0.6540740740740741</v>
       </c>
       <c r="G35">
-        <v>0.01596495266461073</v>
+        <v>0.01720218633892545</v>
       </c>
       <c r="H35">
-        <v>0.2583290601812949</v>
+        <v>0.2715408276052783</v>
       </c>
       <c r="I35">
-        <v>0.005397232929559237</v>
+        <v>0.005894139900639028</v>
       </c>
       <c r="J35">
-        <v>0.8652698921904733</v>
+        <v>0.8630686138943675</v>
       </c>
       <c r="K35">
-        <v>0.005231378449146562</v>
+        <v>0.005780595173866421</v>
       </c>
       <c r="L35">
-        <v>0.536734693877551</v>
+        <v>0.5525471698113207</v>
       </c>
       <c r="M35">
-        <v>0.009199959771249655</v>
+        <v>0.008897154151262243</v>
       </c>
       <c r="N35">
-        <v>0.5604918032786885</v>
+        <v>0.5731578947368421</v>
       </c>
       <c r="O35">
-        <v>0.007331253269200366</v>
+        <v>0.007237204577722256</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2088,46 +2070,46 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6813466257668713</v>
+        <v>0.6964809941520467</v>
       </c>
       <c r="C36">
-        <v>0.006415289440495853</v>
+        <v>0.005777421327256338</v>
       </c>
       <c r="D36">
-        <v>0.4426767442786653</v>
+        <v>0.4596018416220671</v>
       </c>
       <c r="E36">
-        <v>0.005961090987143203</v>
+        <v>0.005777611190934784</v>
       </c>
       <c r="F36">
-        <v>0.6694</v>
+        <v>0.6898245614035089</v>
       </c>
       <c r="G36">
-        <v>0.009922367400740484</v>
+        <v>0.0108274216606673</v>
       </c>
       <c r="H36">
-        <v>0.3311064091688993</v>
+        <v>0.3450209032751617</v>
       </c>
       <c r="I36">
-        <v>0.004833453631527151</v>
+        <v>0.004328855211247262</v>
       </c>
       <c r="J36">
-        <v>0.8521595907908843</v>
+        <v>0.8565984730126435</v>
       </c>
       <c r="K36">
-        <v>0.003955910437698495</v>
+        <v>0.004211590631082784</v>
       </c>
       <c r="L36">
-        <v>0.5841104294478527</v>
+        <v>0.5848888888888889</v>
       </c>
       <c r="M36">
-        <v>0.006699501644013783</v>
+        <v>0.006118716957603354</v>
       </c>
       <c r="N36">
-        <v>0.604131455399061</v>
+        <v>0.610126582278481</v>
       </c>
       <c r="O36">
-        <v>0.00553557525344095</v>
+        <v>0.004852709957874235</v>
       </c>
     </row>
   </sheetData>
